--- a/KNEAD_EXPANDER/KNEAD_EXPANDER_BOM.xlsx
+++ b/KNEAD_EXPANDER/KNEAD_EXPANDER_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_17ad\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20AAFA9-7546-E447-AB2D-FDA1B7B7B317}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{D0E9E3A6-7F35-A349-A1D2-D3A962A9AEE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>KNEAD EXPANDER BOM</t>
   </si>
@@ -168,7 +168,7 @@
   </si>
   <si>
     <t>* Trimmers TM1-4 will let you easily change LED colour and adjust the brightness. If you feel like calculating the current limiting
-resistance according to your LED specifications you may solder a fixed resistor connecting the lower and top left pads
+resistance according to your LED specifications you may solder a fixed resistor connecting the lower and top right pads
 of the three smd pads instead. Then leave the third pad unmounted.</t>
   </si>
 </sst>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
